--- a/26.10.xlsx
+++ b/26.10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-16\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-18\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6B28CF-D137-4D11-A8C5-91DBBC249D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC7300B-822A-443E-8965-9C7E40DF2E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D048C4-8E0F-4E73-949E-F73CFBBF0B34}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>11011110000000</t>
   </si>
   <si>
-    <t>`01000100100000000001011000100101</t>
+    <t>`01000100110110001001010000000000</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="C2:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
